--- a/@Papers/Unique_Petro/Data/Tuff_Core_Analysis.xlsx
+++ b/@Papers/Unique_Petro/Data/Tuff_Core_Analysis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\@Papers\Unique_Petro\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A37D13-B867-4EBA-8D40-1AAA5C0C71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D02B6D-DD41-4FBB-B138-CD6D8F6A1499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3630D4BE-27EB-4558-A490-933084267D94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3630D4BE-27EB-4558-A490-933084267D94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Porosity</t>
   </si>
@@ -57,6 +58,48 @@
   </si>
   <si>
     <t>Medium Grained</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Mod X</t>
+  </si>
+  <si>
+    <t>Mod Y</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>X/100</t>
+  </si>
+  <si>
+    <t>mmin</t>
+  </si>
+  <si>
+    <t>mmax</t>
+  </si>
+  <si>
+    <t>ymin</t>
+  </si>
+  <si>
+    <t>ymax</t>
   </si>
 </sst>
 </file>
@@ -2774,6 +2817,1939 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1349795164493327"/>
+          <c:y val="4.7725373708693397E-2"/>
+          <c:w val="0.83866252829507426"/>
+          <c:h val="0.78359013332186322"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.4059696989201165E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4705765180967435E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4471961109858919E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4443269885904065E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5807096416446469E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.828382650049727E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8206812643426643E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8817649964145469E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4733977358280992E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.981584965235089E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0576713992365834E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3807208799281695E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8598469014755221E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8337632889066338E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7904321966065115E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0324022463357985E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1695835381049484E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3562521894856078E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2385441449540331E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9521590526477706E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9276818944184064E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4837028762336822E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5586411732976959E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7640139273936561E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0041692566667859E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1616647603725212E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6358968821101122E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0657011331085345E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3241436385062211E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5481984069133076E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.8028519348546002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3073043964527535E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10216722421352901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10009883338171449</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10491311170851868</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11375150824800306</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12230563219962338</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13724428825318249</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4657701402433759E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9824181345823403E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0986848546031912E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1709567874445337E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.328766132769817E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4420482513211878E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2129424214252455E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1850431700940563E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.3607224797146217E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0757475854376885E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0981188654489043E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.3166063179057525E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.7329143477273801E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5792983887550787E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.945817496702048E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2393325892503099E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.4358163398924723E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2075071331979549E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1250264281402369</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.11821642203137701</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.10925765835220914</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.11375731929402137</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.12028509157899363</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.9482730970651667E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.4230251615069538E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.0377051260099373E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4119219656457111E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.0240871365611255E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.2715348593236065E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.10445789545867637</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.3084541895809531E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.371294755192966E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7951199922751203E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.250538963319895E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.5717823181895553E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.5761224645775708E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.4197433380136036E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.8693869257997873E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.4325864933645458E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7998187371826538E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.5412288180131001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.1552413564304806E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.9898153071970975E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9171445156886238E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.8432081852909485E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.5669750073206162E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.6207982317578087E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.2071734644683879E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.7583983901212228E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.5453921021445148E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.464999623457611E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.7319208691926263E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.8859860750854739E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8377255694914763E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.6780527706418689E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>4785.5967755109095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1761.2047360234485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2665.5591539532775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1646.1405274985618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4685.1427536464089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1591.8442897066775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410.76951383404867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>940.68514725318028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3718.3504716755147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335.4920545469987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1114.7904733042144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>367.36841103770132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>634.0479733541224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1165.0940447678406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>352.31637911712761</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1316.4847745255961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>801.30666264138824</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3137.1967646819089</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.64284283801734</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>581.17706906552769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>252.26616788371632</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>481.74183887075924</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102.13671981292735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.789567935494198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>225.99410026440893</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>432.52971173754344</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>101.95329470344922</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.916157981254457</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>342.17153839215393</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.15986061458841</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101.88042320029264</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>196.6141730034542</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>167.09159531110578</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119.12318189051868</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47.833816449377352</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>109.12894546121159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92.549108496646824</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79.151662613375521</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6599.8374078626985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>605.68002916967498</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>792.48583340628284</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>979.2402811713855</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>820.00561294190663</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>674.11538455247501</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>379.22194405869078</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>570.07576036348814</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>496.41846246105132</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>153.26890394428366</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>205.16115249394184</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>263.41089150881186</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>322.26634954484604</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>188.70326604520525</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>157.73308618232576</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>110.70179764372894</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>166.36570724638051</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>619.30783609793821</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>54.326425445500519</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67.696611436576319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76.545561129213411</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.680621102377884</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.859903824025253</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>73.117693913201308</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45.42946435059762</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>38.877768487687881</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.789924570538943</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>79.645455892580785</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>89.396714069680002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86.343845310232894</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>168.8901920663242</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>116.57507244999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>150.8209770127263</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>157.46139296318154</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>202.28309595272077</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>255.40587824619891</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>310.51272997084607</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>337.04690913857763</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>252.81696831314261</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>181.10257582002603</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>196.18378017825208</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>212.77253930946105</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>147.23138494458078</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>217.42397417800868</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>280.08947551213288</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>309.46459640340396</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>413.79640426889341</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>329.21413173128553</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>371.65889852002238</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>365.40430981843292</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>236.02902444325471</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>252.14673002835445</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>272.05196170492763</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>193.62665078962601</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>132.75211996931893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E678-4B11-8A6E-7228F28AA38D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$6:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$6:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6309.5734448019275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>296.45377964277901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.432823472428126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.283498063019611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8507572285023723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7027721034717533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7321319661472296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6394450458491008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9693083573873833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5280199508483256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2216287138348325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E678-4B11-8A6E-7228F28AA38D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$6:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$6:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2290.8676527677708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.36645978704209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.863009232263806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.937214146748707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.558511741843688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6616451837179333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.204279510358488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3588802778937525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8206870062371738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4548185227437909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1936378566243089</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E678-4B11-8A6E-7228F28AA38D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$6:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$6:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25118.864315095816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>728.22568121043241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.48931924611139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.49324153653037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.136218183771028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5070277123839446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5947934199881404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.076573175689695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1917161709913868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6338118009238642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2608588735804136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E678-4B11-8A6E-7228F28AA38D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1128996336"/>
+        <c:axId val="1129040016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$B$94</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="93"/>
+                      <c:pt idx="0">
+                        <c:v>3.70123604978978E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.8712539949914297E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.8097266078576102E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.43375523313265E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.7926569516964394E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.4444280264466492E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.4241612219543798E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.5849078853014396E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.5102571995476297E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.8475920137765498E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.0478194716752202E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.8979496840215E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.101588076354619</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.10090166549754301</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>9.9761373594908206E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.10612900648252101</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.109739040476446</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.11465137340751599</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.11155379328826401</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.13033313296441501</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.12968899722153701</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.144321128321939</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.14629318877099201</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.151697734931412</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.15801761201754699</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.16216223053611897</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.17464202321342398</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.18595266139759301</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.19275377996069001</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.19864995807666599</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.20535136670669998</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.244942220959283</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.26887427424612897</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.26343114047819599</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.27610029396978603</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.299359232231587</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.32187008473585105</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.36118233750837497</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3.8586056322194098E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7.8497845646903694E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>8.1557496173768201E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>8.3459389143277191E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>8.7612266651837287E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>9.0593375034768095E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.11088006372171699</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.110145872897212</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.11476901262406899</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.13358546277467601</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.13417418066970799</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.13992385047120401</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.12456353546651</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.14683679970408101</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.156482039386896</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.164206120769745</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.169376745786644</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.13705281929468302</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.32903007405325502</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.311109005345729</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.28753331145318201</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.29937452445795099</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.31655287257629899</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.23549402887013599</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.24798750425018301</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.23784750331605101</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.19506373593804502</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.211173345698977</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.21768512787693703</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.274902356470201</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.244972478673183</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.24662617776823598</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.23146368400724002</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.21713260429789202</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.225586376794462</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.22570059117309399</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.22158535100035798</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.20710228752104701</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.19560753929906699</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.20527154571533299</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.19846654784244999</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.18830898306396002</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.183955665978871</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.18204327672864801</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.18009758382344601</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.17282828966633201</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.17424469030941603</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.16335982801232599</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.151549957634769</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.145944529003803</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.17014472693309501</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.15085318076822701</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.154907528291723</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.179953304460302</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.20206717817478601</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$C$2:$C$94</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="93"/>
+                      <c:pt idx="0">
+                        <c:v>1818.9072124372501</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>669.63823743201499</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1013.2929162453501</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>625.91383819255805</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1780.7346841287399</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>605.28126783164203</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>156.47285300004299</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>357.840793699313</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1413.3536169798001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>127.867418470964</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>424.00081759870602</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>139.980433937431</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>241.318667617671</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>443.11617475488401</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>134.26066180761299</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>500.64465206283103</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>304.87696954683202</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1192.5152083222299</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>64.084718021551097</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>221.22772398800501</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>96.241581538916705</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>183.44233651399301</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>39.192391272016899</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>20.440473558592299</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>86.258195843579898</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>164.741728203371</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>39.122689730415203</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>22.008577775981198</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>130.40562233212299</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>14.8811847766481</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>39.094998559215703</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>75.093823484417101</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>63.875243961324699</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>45.6472468615016</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>18.557287993867899</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>41.849437018364902</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>35.549098971830297</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>30.4580695361872</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2508.3186527309299</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>230.53884882758101</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>301.52505443749197</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>372.49174458823097</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>311.982570661029</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>256.544283873045</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>144.484776485407</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>217.00922668122999</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>189.019453478304</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>58.622621241932301</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>78.341675690802404</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>100.47657651645299</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>122.841650570146</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>72.087678840282507</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>60.319010492388301</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>42.4471208477215</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>63.599406496729102</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>235.71741546032101</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>21.024479412394701</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>26.105150089003502</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>29.4677509722056</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>18.119073762008099</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>13.2472011962341</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>28.165161430121</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>17.6436341963316</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>15.1539897684259</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>26.900609079909302</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>30.645710982285198</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>34.351189089582903</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>33.191098960993003</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>64.558710728307702</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>44.678965274104499</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>57.692409007940498</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>60.215767069113497</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>77.248014205138404</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>97.4346714766601</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>118.375275132026</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>128.45826321576399</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>96.450885702098702</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>69.199416554714404</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>74.930274210840295</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>81.234002680699703</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>56.3283640220452</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>83.001547930747805</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>106.814438437715</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>117.97698437639799</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>157.62307136528401</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>125.481807800993</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>141.61081918071301</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>139.23407547410901</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>90.071467031541303</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>96.196195153879202</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>103.760183190977</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>73.958565043162395</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>50.826243331445703</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E678-4B11-8A6E-7228F28AA38D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1128996336"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Porosity (V/V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1129040016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1129040016"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Formation Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128996336"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2814,7 +4790,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3371,6 +5903,312 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BFA0FF-91FB-7E97-E92F-6ECACB25993A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14418</cdr:x>
+      <cdr:y>0.37455</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30026</cdr:x>
+      <cdr:y>0.44243</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7397DB8F-4198-A964-2BAB-FBFA87FBB912}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1403019">
+          <a:off x="848122" y="1546577"/>
+          <a:ext cx="918153" cy="280285"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Low Case m ~ 1.7</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13762</cdr:x>
+      <cdr:y>0.21562</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27183</cdr:x>
+      <cdr:y>0.27208</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A829D9C0-64DD-E21B-2072-4E940108D583}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1645194">
+          <a:off x="809507" y="890332"/>
+          <a:ext cx="789513" cy="233146"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Mid Case m ~ 1.9</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14095</cdr:x>
+      <cdr:y>0.11533</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29703</cdr:x>
+      <cdr:y>0.18321</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1363434F-4748-E579-7632-B3BAF898F59B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="1900607">
+          <a:off x="829118" y="476239"/>
+          <a:ext cx="918152" cy="280285"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>High Case m ~ 2.2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3660,7 +6498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3670,7 +6508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFB17A2-7B02-4CE4-B935-1CEFF3F7EE8B}">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -5178,4 +8016,2122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466ED283-A47B-4BEC-8E41-E1DDFF840E39}">
+  <dimension ref="A1:K94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3.70123604978978</v>
+      </c>
+      <c r="B2">
+        <f>A2/100</f>
+        <v>3.70123604978978E-2</v>
+      </c>
+      <c r="C2">
+        <v>1818.9072124372501</v>
+      </c>
+      <c r="E2">
+        <f>((A2*$I$1)-$I$2)/100</f>
+        <v>1.4059696989201165E-2</v>
+      </c>
+      <c r="F2">
+        <f>(C2/$I$1)-10^($I$2)</f>
+        <v>4785.5967755109095</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.87125399499143</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">A3/100</f>
+        <v>3.8712539949914297E-2</v>
+      </c>
+      <c r="C3">
+        <v>669.63823743201499</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">((A3*$I$1)-$I$2)/100</f>
+        <v>1.4705765180967435E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="2">(C3/$I$1)-10^($I$2)</f>
+        <v>1761.2047360234485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.80972660785761</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>3.8097266078576102E-2</v>
+      </c>
+      <c r="C4">
+        <v>1013.2929162453501</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.4471961109858919E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2665.5591539532775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6.4337552331326497</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>6.43375523313265E-2</v>
+      </c>
+      <c r="C5">
+        <v>625.91383819255805</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.4443269885904065E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1646.1405274985618</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6.7926569516964399</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6.7926569516964394E-2</v>
+      </c>
+      <c r="C6">
+        <v>1780.7346841287399</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.5807096416446469E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>4685.1427536464089</v>
+      </c>
+      <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6">
+        <f>H6^$I$19</f>
+        <v>2290.8676527677708</v>
+      </c>
+      <c r="J6">
+        <f>H6^$I$20</f>
+        <v>6309.5734448019275</v>
+      </c>
+      <c r="K6">
+        <f>H6^$I$21</f>
+        <v>25118.864315095816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.4444280264466496</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>7.4444280264466492E-2</v>
+      </c>
+      <c r="C7">
+        <v>605.28126783164203</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.828382650049727E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1591.8442897066775</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I17" si="3">H7^$I$19</f>
+        <v>153.36645978704209</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J17" si="4">H7^$I$20</f>
+        <v>296.45377964277901</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K17" si="5">H7^$I$21</f>
+        <v>728.22568121043241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.42416122195438</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>7.4241612219543798E-2</v>
+      </c>
+      <c r="C8">
+        <v>156.47285300004299</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.8206812643426643E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>410.76951383404867</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>47.863009232263806</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>79.432823472428126</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>158.48931924611139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.5849078853014396</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7.5849078853014396E-2</v>
+      </c>
+      <c r="C9">
+        <v>357.840793699313</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2.8817649964145469E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>940.68514725318028</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>14.937214146748707</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>21.283498063019611</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>34.49324153653037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6.5102571995476302</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6.5102571995476297E-2</v>
+      </c>
+      <c r="C10">
+        <v>1413.3536169798001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.4733977358280992E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>3718.3504716755147</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>7.558511741843688</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>9.8507572285023723</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>14.136218183771028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7.8475920137765502</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>7.8475920137765498E-2</v>
+      </c>
+      <c r="C11">
+        <v>127.867418470964</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.981584965235089E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>335.4920545469987</v>
+      </c>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>4.6616451837179333</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>5.7027721034717533</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>7.5070277123839446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8.0478194716752203</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>8.0478194716752202E-2</v>
+      </c>
+      <c r="C12">
+        <v>424.00081759870602</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.0576713992365834E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1114.7904733042144</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3.204279510358488</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>3.7321319661472296</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>4.5947934199881404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8.8979496840214996</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8.8979496840215E-2</v>
+      </c>
+      <c r="C13">
+        <v>139.980433937431</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.3807208799281695E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>367.36841103770132</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2.3588802778937525</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>2.6394450458491008</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>3.076573175689695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10.158807635461899</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.101588076354619</v>
+      </c>
+      <c r="C14">
+        <v>241.318667617671</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.8598469014755221E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>634.0479733541224</v>
+      </c>
+      <c r="H14">
+        <v>0.7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1.8206870062371738</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>1.9693083573873833</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>2.1917161709913868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10.090166549754301</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.10090166549754301</v>
+      </c>
+      <c r="C15">
+        <v>443.11617475488401</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.8337632889066338E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1165.0940447678406</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1.4548185227437909</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>1.5280199508483256</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1.6338118009238642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9.9761373594908207</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>9.9761373594908206E-2</v>
+      </c>
+      <c r="C16">
+        <v>134.26066180761299</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>3.7904321966065115E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>352.31637911712761</v>
+      </c>
+      <c r="H16">
+        <v>0.9</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.1936378566243089</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>1.2216287138348325</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>1.2608588735804136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10.612900648252101</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.10612900648252101</v>
+      </c>
+      <c r="C17">
+        <v>500.64465206283103</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4.0324022463357985E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1316.4847745255961</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10.9739040476446</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.109739040476446</v>
+      </c>
+      <c r="C18">
+        <v>304.87696954683202</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4.1695835381049484E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>801.30666264138824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11.4651373407516</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.11465137340751599</v>
+      </c>
+      <c r="C19">
+        <v>1192.5152083222299</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>4.3562521894856078E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>3137.1967646819089</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>-1.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11.155379328826401</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.11155379328826401</v>
+      </c>
+      <c r="C20">
+        <v>64.084718021551097</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>4.2385441449540331E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>167.64284283801734</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13.0333132964415</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.13033313296441501</v>
+      </c>
+      <c r="C21">
+        <v>221.22772398800501</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4.9521590526477706E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>581.17706906552769</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12.968899722153701</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.12968899722153701</v>
+      </c>
+      <c r="C22">
+        <v>96.241581538916705</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>4.9276818944184064E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>252.26616788371632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14.4321128321939</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.144321128321939</v>
+      </c>
+      <c r="C23">
+        <v>183.44233651399301</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>5.4837028762336822E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>481.74183887075924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14.6293188770992</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.14629318877099201</v>
+      </c>
+      <c r="C24">
+        <v>39.192391272016899</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>5.5586411732976959E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>102.13671981292735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15.1697734931412</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.151697734931412</v>
+      </c>
+      <c r="C25">
+        <v>20.440473558592299</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>5.7640139273936561E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>52.789567935494198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>15.801761201754699</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.15801761201754699</v>
+      </c>
+      <c r="C26">
+        <v>86.258195843579898</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>6.0041692566667859E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>225.99410026440893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16.216223053611898</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.16216223053611897</v>
+      </c>
+      <c r="C27">
+        <v>164.741728203371</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>6.1616647603725212E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>432.52971173754344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>17.464202321342398</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.17464202321342398</v>
+      </c>
+      <c r="C28">
+        <v>39.122689730415203</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>6.6358968821101122E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>101.95329470344922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>18.5952661397593</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.18595266139759301</v>
+      </c>
+      <c r="C29">
+        <v>22.008577775981198</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>7.0657011331085345E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>56.916157981254457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>19.275377996069</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.19275377996069001</v>
+      </c>
+      <c r="C30">
+        <v>130.40562233212299</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>7.3241436385062211E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>342.17153839215393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>19.864995807666599</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.19864995807666599</v>
+      </c>
+      <c r="C31">
+        <v>14.8811847766481</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>7.5481984069133076E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>38.15986061458841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20.535136670669999</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.20535136670669998</v>
+      </c>
+      <c r="C32">
+        <v>39.094998559215703</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>7.8028519348546002E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>101.88042320029264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24.494222095928301</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.244942220959283</v>
+      </c>
+      <c r="C33">
+        <v>75.093823484417101</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>9.3073043964527535E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>196.6141730034542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26.887427424612898</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.26887427424612897</v>
+      </c>
+      <c r="C34">
+        <v>63.875243961324699</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.10216722421352901</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>167.09159531110578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>26.343114047819601</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.26343114047819599</v>
+      </c>
+      <c r="C35">
+        <v>45.6472468615016</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.10009883338171449</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>119.12318189051868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>27.6100293969786</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.27610029396978603</v>
+      </c>
+      <c r="C36">
+        <v>18.557287993867899</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0.10491311170851868</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>47.833816449377352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>29.935923223158699</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.299359232231587</v>
+      </c>
+      <c r="C37">
+        <v>41.849437018364902</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0.11375150824800306</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>109.12894546121159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32.187008473585102</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.32187008473585105</v>
+      </c>
+      <c r="C38">
+        <v>35.549098971830297</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0.12230563219962338</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>92.549108496646824</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36.118233750837497</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.36118233750837497</v>
+      </c>
+      <c r="C39">
+        <v>30.4580695361872</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0.13724428825318249</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>79.151662613375521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.85860563221941</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>3.8586056322194098E-2</v>
+      </c>
+      <c r="C40">
+        <v>2508.3186527309299</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>1.4657701402433759E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>6599.8374078626985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7.8497845646903697</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>7.8497845646903694E-2</v>
+      </c>
+      <c r="C41">
+        <v>230.53884882758101</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>2.9824181345823403E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>605.68002916967498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8.15574961737682</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>8.1557496173768201E-2</v>
+      </c>
+      <c r="C42">
+        <v>301.52505443749197</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>3.0986848546031912E-2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>792.48583340628284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8.3459389143277196</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>8.3459389143277191E-2</v>
+      </c>
+      <c r="C43">
+        <v>372.49174458823097</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>3.1709567874445337E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>979.2402811713855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8.7612266651837292</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>8.7612266651837287E-2</v>
+      </c>
+      <c r="C44">
+        <v>311.982570661029</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>3.328766132769817E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>820.00561294190663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9.0593375034768098</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>9.0593375034768095E-2</v>
+      </c>
+      <c r="C45">
+        <v>256.544283873045</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>3.4420482513211878E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>674.11538455247501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11.0880063721717</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.11088006372171699</v>
+      </c>
+      <c r="C46">
+        <v>144.484776485407</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>4.2129424214252455E-2</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>379.22194405869078</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11.0145872897212</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.110145872897212</v>
+      </c>
+      <c r="C47">
+        <v>217.00922668122999</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>4.1850431700940563E-2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>570.07576036348814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11.4769012624069</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.11476901262406899</v>
+      </c>
+      <c r="C48">
+        <v>189.019453478304</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>4.3607224797146217E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>496.41846246105132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13.3585462774676</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.13358546277467601</v>
+      </c>
+      <c r="C49">
+        <v>58.622621241932301</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>5.0757475854376885E-2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>153.26890394428366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>13.4174180669708</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.13417418066970799</v>
+      </c>
+      <c r="C50">
+        <v>78.341675690802404</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>5.0981188654489043E-2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>205.16115249394184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>13.992385047120401</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.13992385047120401</v>
+      </c>
+      <c r="C51">
+        <v>100.47657651645299</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>5.3166063179057525E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>263.41089150881186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12.456353546651</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.12456353546651</v>
+      </c>
+      <c r="C52">
+        <v>122.841650570146</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>4.7329143477273801E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>322.26634954484604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>14.6836799704081</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.14683679970408101</v>
+      </c>
+      <c r="C53">
+        <v>72.087678840282507</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>5.5792983887550787E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>188.70326604520525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>15.648203938689599</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.156482039386896</v>
+      </c>
+      <c r="C54">
+        <v>60.319010492388301</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>5.945817496702048E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>157.73308618232576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16.4206120769745</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.164206120769745</v>
+      </c>
+      <c r="C55">
+        <v>42.4471208477215</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>6.2393325892503099E-2</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>110.70179764372894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>16.937674578664399</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.169376745786644</v>
+      </c>
+      <c r="C56">
+        <v>63.599406496729102</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>6.4358163398924723E-2</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>166.36570724638051</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>13.705281929468301</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.13705281929468302</v>
+      </c>
+      <c r="C57">
+        <v>235.71741546032101</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>5.2075071331979549E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>619.30783609793821</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>32.903007405325503</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.32903007405325502</v>
+      </c>
+      <c r="C58">
+        <v>21.024479412394701</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0.1250264281402369</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>54.326425445500519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>31.110900534572899</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.311109005345729</v>
+      </c>
+      <c r="C59">
+        <v>26.105150089003502</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0.11821642203137701</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>67.696611436576319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>28.753331145318199</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.28753331145318201</v>
+      </c>
+      <c r="C60">
+        <v>29.4677509722056</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0.10925765835220914</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>76.545561129213411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>29.937452445795099</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.29937452445795099</v>
+      </c>
+      <c r="C61">
+        <v>18.119073762008099</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0.11375731929402137</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>46.680621102377884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>31.655287257629901</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.31655287257629899</v>
+      </c>
+      <c r="C62">
+        <v>13.2472011962341</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0.12028509157899363</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>33.859903824025253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>23.549402887013599</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.23549402887013599</v>
+      </c>
+      <c r="C63">
+        <v>28.165161430121</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>8.9482730970651667E-2</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>73.117693913201308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>24.798750425018302</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.24798750425018301</v>
+      </c>
+      <c r="C64">
+        <v>17.6436341963316</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>9.4230251615069538E-2</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>45.42946435059762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>23.7847503316051</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.23784750331605101</v>
+      </c>
+      <c r="C65">
+        <v>15.1539897684259</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>9.0377051260099373E-2</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>38.877768487687881</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>19.506373593804501</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.19506373593804502</v>
+      </c>
+      <c r="C66">
+        <v>26.900609079909302</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>7.4119219656457111E-2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>69.789924570538943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>21.1173345698977</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B94" si="6">A67/100</f>
+        <v>0.211173345698977</v>
+      </c>
+      <c r="C67">
+        <v>30.645710982285198</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E94" si="7">((A67*$I$1)-$I$2)/100</f>
+        <v>8.0240871365611255E-2</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F94" si="8">(C67/$I$1)-10^($I$2)</f>
+        <v>79.645455892580785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>21.768512787693702</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="6"/>
+        <v>0.21768512787693703</v>
+      </c>
+      <c r="C68">
+        <v>34.351189089582903</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>8.2715348593236065E-2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>89.396714069680002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>27.4902356470201</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="6"/>
+        <v>0.274902356470201</v>
+      </c>
+      <c r="C69">
+        <v>33.191098960993003</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>0.10445789545867637</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>86.343845310232894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>24.497247867318301</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="6"/>
+        <v>0.244972478673183</v>
+      </c>
+      <c r="C70">
+        <v>64.558710728307702</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>9.3084541895809531E-2</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>168.8901920663242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>24.662617776823598</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="6"/>
+        <v>0.24662617776823598</v>
+      </c>
+      <c r="C71">
+        <v>44.678965274104499</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>9.371294755192966E-2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>116.57507244999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>23.146368400724</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="6"/>
+        <v>0.23146368400724002</v>
+      </c>
+      <c r="C72">
+        <v>57.692409007940498</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>8.7951199922751203E-2</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>150.8209770127263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>21.713260429789202</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>0.21713260429789202</v>
+      </c>
+      <c r="C73">
+        <v>60.215767069113497</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>8.250538963319895E-2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>157.46139296318154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>22.5586376794462</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>0.225586376794462</v>
+      </c>
+      <c r="C74">
+        <v>77.248014205138404</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>8.5717823181895553E-2</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>202.28309595272077</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>22.570059117309398</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>0.22570059117309399</v>
+      </c>
+      <c r="C75">
+        <v>97.4346714766601</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>8.5761224645775708E-2</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>255.40587824619891</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>22.158535100035799</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>0.22158535100035798</v>
+      </c>
+      <c r="C76">
+        <v>118.375275132026</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>8.4197433380136036E-2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>310.51272997084607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>20.710228752104701</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>0.20710228752104701</v>
+      </c>
+      <c r="C77">
+        <v>128.45826321576399</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>7.8693869257997873E-2</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>337.04690913857763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>19.560753929906699</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>0.19560753929906699</v>
+      </c>
+      <c r="C78">
+        <v>96.450885702098702</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>7.4325864933645458E-2</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
+        <v>252.81696831314261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>20.527154571533298</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>0.20527154571533299</v>
+      </c>
+      <c r="C79">
+        <v>69.199416554714404</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>7.7998187371826538E-2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>181.10257582002603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>19.846654784245001</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="6"/>
+        <v>0.19846654784244999</v>
+      </c>
+      <c r="C80">
+        <v>74.930274210840295</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>7.5412288180131001E-2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>196.18378017825208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>18.830898306396001</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="6"/>
+        <v>0.18830898306396002</v>
+      </c>
+      <c r="C81">
+        <v>81.234002680699703</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>7.1552413564304806E-2</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>212.77253930946105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>18.3955665978871</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="6"/>
+        <v>0.183955665978871</v>
+      </c>
+      <c r="C82">
+        <v>56.3283640220452</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="7"/>
+        <v>6.9898153071970975E-2</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="8"/>
+        <v>147.23138494458078</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>18.2043276728648</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="6"/>
+        <v>0.18204327672864801</v>
+      </c>
+      <c r="C83">
+        <v>83.001547930747805</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="7"/>
+        <v>6.9171445156886238E-2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="8"/>
+        <v>217.42397417800868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>18.0097583823446</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="6"/>
+        <v>0.18009758382344601</v>
+      </c>
+      <c r="C84">
+        <v>106.814438437715</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>6.8432081852909485E-2</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
+        <v>280.08947551213288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>17.2828289666332</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="6"/>
+        <v>0.17282828966633201</v>
+      </c>
+      <c r="C85">
+        <v>117.97698437639799</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>6.5669750073206162E-2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
+        <v>309.46459640340396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>17.424469030941601</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="6"/>
+        <v>0.17424469030941603</v>
+      </c>
+      <c r="C86">
+        <v>157.62307136528401</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>6.6207982317578087E-2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
+        <v>413.79640426889341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>16.3359828012326</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="6"/>
+        <v>0.16335982801232599</v>
+      </c>
+      <c r="C87">
+        <v>125.481807800993</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>6.2071734644683879E-2</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
+        <v>329.21413173128553</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>15.154995763476901</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="6"/>
+        <v>0.151549957634769</v>
+      </c>
+      <c r="C88">
+        <v>141.61081918071301</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="7"/>
+        <v>5.7583983901212228E-2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
+        <v>371.65889852002238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>14.594452900380301</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="6"/>
+        <v>0.145944529003803</v>
+      </c>
+      <c r="C89">
+        <v>139.23407547410901</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>5.5453921021445148E-2</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>365.40430981843292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>17.0144726933095</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="6"/>
+        <v>0.17014472693309501</v>
+      </c>
+      <c r="C90">
+        <v>90.071467031541303</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>6.464999623457611E-2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>236.02902444325471</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>15.0853180768227</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="6"/>
+        <v>0.15085318076822701</v>
+      </c>
+      <c r="C91">
+        <v>96.196195153879202</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>5.7319208691926263E-2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>252.14673002835445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>15.490752829172299</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="6"/>
+        <v>0.154907528291723</v>
+      </c>
+      <c r="C92">
+        <v>103.760183190977</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="7"/>
+        <v>5.8859860750854739E-2</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="8"/>
+        <v>272.05196170492763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>17.995330446030199</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="6"/>
+        <v>0.179953304460302</v>
+      </c>
+      <c r="C93">
+        <v>73.958565043162395</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="7"/>
+        <v>6.8377255694914763E-2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="8"/>
+        <v>193.62665078962601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>20.206717817478602</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="6"/>
+        <v>0.20206717817478601</v>
+      </c>
+      <c r="C94">
+        <v>50.826243331445703</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="7"/>
+        <v>7.6780527706418689E-2</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="8"/>
+        <v>132.75211996931893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>